--- a/design/MiniTemplate/Excels/#role_level.xlsx
+++ b/design/MiniTemplate/Excels/#role_level.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiliBili\Work\slime\design\MiniTemplate\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3559D9C-FE25-4811-BE8D-8D7EDF9E47CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78977C2F-DFD1-4BB6-B57D-473377464E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5604" yWindow="4920" windowWidth="19068" windowHeight="10728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4224" yWindow="3444" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,14 +38,6 @@
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp_need</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp_dead</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -82,6 +74,14 @@
   </si>
   <si>
     <t>生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>need</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,13 +490,15 @@
   <dimension ref="A1:G202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G206" sqref="G206"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.109375" style="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.77734375" style="1" customWidth="1"/>
@@ -511,19 +513,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -534,19 +536,19 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -557,19 +559,19 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2230,7 +2232,7 @@
         <v>380</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" ref="E70:E102" si="8">ROUND(E69*1.1,0)</f>
+        <f t="shared" ref="E70:E101" si="8">ROUND(E69*1.1,0)</f>
         <v>539320</v>
       </c>
       <c r="F70" s="1">
